--- a/MultipleTest.xlsx
+++ b/MultipleTest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,270 +441,275 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>runNumber</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>serialNumber</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ASIC_ID</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode0_RAW</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode1_RAW</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode2_RAW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode3_RAW</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode4_RAW</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode5_RAW</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode6_RAW</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode7_RAW</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_16_RAW</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_24_RAW</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_32_RAW</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_64_RAW</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_128_RAW</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_224_RAW</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_128_RAW</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_256_RAW</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_384_RAW</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_640_RAW</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_1024_RAW</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_2048_RAW</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W_1ST_3584_RAW</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_10_RAW</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_6_RAW</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_4_RAW</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_2_RAW</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_1_RAW</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_0p5_RAW</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>W_2ND_0p25_RAW</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode0_DDPU</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode1_DDPU</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode2_DDPU</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode3_DDPU</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode4_DDPU</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode5_DDPU</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode6_DDPU</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>MDACCorrectionCode7_DDPU</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode6</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode7</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode8</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode9</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode10</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode11</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode12</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode13</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode14</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode15</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode16</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode17</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode18</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode19</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>SARCorrectionCode20</t>
         </is>
@@ -713,169 +718,516 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3-8-2022 21:11:43</t>
+          <t>3-8-2022 22:9:26</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>420</v>
+      </c>
+      <c r="C2" t="n">
         <v>169153</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>239.9761249999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4337.088374999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4336.4355</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>4337.3696875</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>4338.145875</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>4336.576375</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>4336.51175</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>4333.579375</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>15.96359375</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>23.98128124999999</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>32.11515625000001</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>63.54305000000001</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>127.11364125</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>221.6530525</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>129.8466674999999</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>260.6318624999998</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>390.6340937499997</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>650.7235862499996</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>1040.232351249999</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>2078.389459999999</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>3638.472926249998</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>10</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>6</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>4</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>2</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>0.25</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>960</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>18308</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>35654</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>53003</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>70356</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>87702</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>105048</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>122383</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>23</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>38</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>61</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>92</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>123</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>243</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>486</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>847</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>496</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>996</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AZ2" t="n">
         <v>1493</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BA2" t="n">
         <v>2487</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BB2" t="n">
         <v>3976</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BC2" t="n">
         <v>7943</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:9:35</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420</v>
+      </c>
+      <c r="C3" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>239.9761249999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4337.088374999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4336.4355</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4337.3696875</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4338.145875</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4336.576375</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4336.51175</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4333.579375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.96359375</v>
+      </c>
+      <c r="O3" t="n">
+        <v>23.98128124999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>32.11515625000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63.54305000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>127.11364125</v>
+      </c>
+      <c r="S3" t="n">
+        <v>221.6530525</v>
+      </c>
+      <c r="T3" t="n">
+        <v>129.8466674999999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>260.6318624999998</v>
+      </c>
+      <c r="V3" t="n">
+        <v>390.6340937499997</v>
+      </c>
+      <c r="W3" t="n">
+        <v>650.7235862499996</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1040.232351249999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2078.389459999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3638.472926249998</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>18308</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>35654</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>53003</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>70356</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>87702</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>105048</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>122383</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>243</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>847</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>7943</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3-8-2022 22:9:38</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>420</v>
+      </c>
+      <c r="C4" t="n">
+        <v>169153</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>239.9761249999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4337.088374999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4336.4355</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4337.3696875</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4338.145875</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4336.576375</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4336.51175</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4333.579375</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15.96359375</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23.98128124999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32.11515625000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>63.54305000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>127.11364125</v>
+      </c>
+      <c r="S4" t="n">
+        <v>221.6530525</v>
+      </c>
+      <c r="T4" t="n">
+        <v>129.8466674999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>260.6318624999998</v>
+      </c>
+      <c r="V4" t="n">
+        <v>390.6340937499997</v>
+      </c>
+      <c r="W4" t="n">
+        <v>650.7235862499996</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1040.232351249999</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2078.389459999999</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3638.472926249998</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>960</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>18308</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>35654</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>53003</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>70356</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>87702</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>105048</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>122383</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>61</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>123</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>243</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>486</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>847</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>496</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>996</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1493</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3976</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7943</v>
+      </c>
+      <c r="BD4" t="n">
         <v>13906</v>
       </c>
     </row>
